--- a/Colores favoritos.xlsx
+++ b/Colores favoritos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1b747056db17deec/Python/My-Python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="11_AD4D2F04E46CFB4ACB3E202A3D12EB4A683EDF10" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{19DA8A73-B44E-4626-811B-BE113B894F66}"/>
+  <xr:revisionPtr revIDLastSave="142" documentId="11_AD4D2F04E46CFB4ACB3E202A3D12EB4A683EDF10" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0C2800C-F406-4FF1-98BD-14D0F78A638F}"/>
   <bookViews>
-    <workbookView xWindow="28710" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,20 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>Codigo</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Color fuente</t>
   </si>
   <si>
-    <t>#e48990 (print)</t>
-  </si>
-  <si>
-    <t>#83A598 (filterwarnings)</t>
-  </si>
-  <si>
     <t>#dfe07b (string)</t>
   </si>
   <si>
@@ -54,23 +45,108 @@
     <t>1e1e1e</t>
   </si>
   <si>
-    <t>border</t>
-  </si>
-  <si>
     <t>3c3836</t>
+  </si>
+  <si>
+    <t>Json code</t>
+  </si>
+  <si>
+    <t>Codigo color</t>
+  </si>
+  <si>
+    <t>keyword.control</t>
+  </si>
+  <si>
+    <t>f38620</t>
+  </si>
+  <si>
+    <t>variable.parameter</t>
+  </si>
+  <si>
+    <t>#e48990 (category)</t>
+  </si>
+  <si>
+    <t>meta.function-call.generic</t>
+  </si>
+  <si>
+    <t>support.function.builtin</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>storage.type.function.python</t>
+  </si>
+  <si>
+    <t>dd77f1</t>
+  </si>
+  <si>
+    <t>f8df51</t>
+  </si>
+  <si>
+    <t>entity.name.function.python</t>
+  </si>
+  <si>
+    <t>source.python meta.member.access.python</t>
+  </si>
+  <si>
+    <t>f07178</t>
+  </si>
+  <si>
+    <t>Descripcion</t>
+  </si>
+  <si>
+    <t>Border</t>
+  </si>
+  <si>
+    <t>        "terminal.foreground": "#da9f0c",</t>
+  </si>
+  <si>
+    <t>        "terminal.background": "#141313",</t>
+  </si>
+  <si>
+    <t>editor.background</t>
+  </si>
+  <si>
+    <t>6kedmhfzmu2r7uwzyglcoyoqwrm2putnpwin4jdhcqfbmlmcrcua</t>
+  </si>
+  <si>
+    <t>bbln37squm2yv3d5vr2k6beex66ylwgcmp5lvejc2wmjghcnxmza</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -93,12 +169,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -120,102 +202,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2232327</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>708111</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CBCB22B-9030-2840-4FE7-E11852561748}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2076450" y="273050"/>
-          <a:ext cx="2168827" cy="625561"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>273050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>327801</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>644576</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Imagen 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{654601C6-50C4-15BE-D704-6766BECAFA8B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2139950" y="1409700"/>
-          <a:ext cx="5566551" cy="362001"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>82550</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>283351</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3333750</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>835129</xdr:rowOff>
     </xdr:to>
@@ -232,16 +226,15 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect r="41684"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2095500" y="2165350"/>
-          <a:ext cx="5563376" cy="743054"/>
+          <a:off x="4054475" y="2441575"/>
+          <a:ext cx="3248025" cy="749404"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -252,13 +245,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>107950</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>311150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1997337</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>609641</xdr:rowOff>
@@ -277,7 +270,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -296,13 +289,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>53975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1314564</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>187550</xdr:rowOff>
@@ -321,7 +314,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:srcRect t="32737"/>
         <a:stretch/>
       </xdr:blipFill>
@@ -329,6 +322,313 @@
         <a:xfrm>
           <a:off x="2508250" y="3082925"/>
           <a:ext cx="819264" cy="1079725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3577163</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1142999</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0554F059-5353-AAC4-3A0D-4D82EF8D9EF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4016375" y="200024"/>
+          <a:ext cx="3526363" cy="1133475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>137118</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>606466</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7019362F-25E6-5CEE-5CB0-9EDCE708476A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4032250" y="1714500"/>
+          <a:ext cx="4251918" cy="298491"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>330200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2035409</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>647744</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F830F42-C3F5-CD2A-3600-2BFD1435BF4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4324350" y="5524500"/>
+          <a:ext cx="1676634" cy="317544"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>374650</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2019530</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>574719</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Imagen 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C2B17B7-6E2E-29A9-9B5B-0AE0D3BE635B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4343400" y="5451475"/>
+          <a:ext cx="1644880" cy="317544"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3350064</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>758902</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Imagen 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07023FEE-463A-6277-D6DD-B9C3BB0F84ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4159250" y="7289800"/>
+          <a:ext cx="3146864" cy="552527"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>873124</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>3953</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2936873</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>41282</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Imagen 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D61C7DDF-D511-2211-C2AA-259F7C7AF597}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5464559" y="9331718"/>
+          <a:ext cx="818379" cy="2063749"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>333377</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>92076</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3409950</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>547990</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Imagen 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84E777C4-877A-CD00-C5A5-BB08B60EEF82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:srcRect r="46790" b="63391"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4302127" y="10823576"/>
+          <a:ext cx="3076573" cy="1116314"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -603,67 +903,137 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.140625" customWidth="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="62.7109375" customWidth="1"/>
+    <col min="4" max="4" width="45.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="96" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="D4" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="6" spans="1:4" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="7" spans="1:4" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="11" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-    </row>
+    <row r="12" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Colores favoritos.xlsx
+++ b/Colores favoritos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1b747056db17deec/Python/My-Python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="142" documentId="11_AD4D2F04E46CFB4ACB3E202A3D12EB4A683EDF10" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0C2800C-F406-4FF1-98BD-14D0F78A638F}"/>
+  <xr:revisionPtr revIDLastSave="143" documentId="11_AD4D2F04E46CFB4ACB3E202A3D12EB4A683EDF10" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA32E183-156C-4F13-AF45-477C0E79BB5B}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Color fuente</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>bbln37squm2yv3d5vr2k6beex66ylwgcmp5lvejc2wmjghcnxmza</t>
+  </si>
+  <si>
+    <t>i4dmgkhjsheya3logugwjvoleaiue4wwatkujlmieydbdsaj2kzq</t>
   </si>
 </sst>
 </file>
@@ -906,8 +909,8 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -962,12 +965,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
